--- a/medicine/Premiers secours et secourisme/Croix-Rouge_portugaise/Croix-Rouge_portugaise.xlsx
+++ b/medicine/Premiers secours et secourisme/Croix-Rouge_portugaise/Croix-Rouge_portugaise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Croix-Rouge portugaise (en portugais : Cruz Vermelha Portuguesa ou CVP) est la société nationale portugaise du Mouvement international de la Croix-Rouge et du Croissant-Rouge. La Croix-Rouge portugaise est une organisation humanitaire d'utilité publique qui a pour objectif de défendre la paix, garantir le respect de la dignité humaine, de minimiser les effets de la guerre ainsi que de promouvoir la vie et la santé.
@@ -514,7 +526,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Croix-Rouge portugaise fut fondée le 11 février 1865, avec le nom "Comissão Portuguesa de Socorros a Feridos e Doentes Militares" em Tempo de Guerra" en français "Commission portugaise de secours aux militaires malades et blessés" par le médecin José António Marques, qui en 1864, avait représenté le Portugal lors des Conventions de Genève après avoir été mandaté par le roi Louis Ier du Portugal.
 Depuis son existence, la Croix-Rouge Portugaise a été un appui lors des conflits armés ainsi que lors des grandes catastrophes que le pays a subi. De plus, l'appui de La Croix-Rouge Portugaise ne s'est pas limité uniquement au Portugal, mais a aussi été utile lors de guerres ou de catastrophes à l'international.
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Structure nationale
-La Structure nationale est l'organe exécutif le plus puissant de La Croix-Rouge portugaise, elle est dirigé par le président national de La Croix-Rouge Portugaise ainsi qu'un Secrétaire-Général.
+          <t>Structure nationale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Structure nationale est l'organe exécutif le plus puissant de La Croix-Rouge portugaise, elle est dirigé par le président national de La Croix-Rouge Portugaise ainsi qu'un Secrétaire-Général.
 Sous directions de la structure nationale :
 Services centraux, incluant :
 Département financier
@@ -568,9 +587,43 @@
 Corps de bénévoles, incluant :
 Service jeunesse de la Croix-Rouge portugaise
 Bénévolat de soutien général
-Équipes des situations d'urgences
-Structures locales
-La Croix-Rouge portugaise possède 170 délégations ou centres humanitaires à travers le pays. Chaque structure possède sa propre direction ce qui leur garantit une complète gestion des activités à l'échelle locale.
+Équipes des situations d'urgences</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Croix-Rouge_portugaise</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croix-Rouge_portugaise</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Structures locales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Croix-Rouge portugaise possède 170 délégations ou centres humanitaires à travers le pays. Chaque structure possède sa propre direction ce qui leur garantit une complète gestion des activités à l'échelle locale.
 Voici quelques exemples de délégation ou centres humanitaires de la Croix-Rouge portugaise :
 Amadora
 Angra do Heroísmo
@@ -600,31 +653,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Croix-Rouge_portugaise</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Premiers secours et secourisme/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Croix-Rouge_portugaise</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">  Grand Officier de l'ordre de la Tour et de l'Épée (Portugal)
   Grand Officier de l'ordre du Christ (Portugal)
@@ -633,31 +688,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Croix-Rouge_portugaise</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Premiers secours et secourisme/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Croix-Rouge_portugaise</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">(pt) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en portugais intitulé « Cruz Vermelha Portuguesa » (voir la liste des auteurs).
  Portail des associations   Portail des premiers secours et du secourisme   Portail du Portugal                   </t>
